--- a/StructureDefinition-ext-R5-MedicationKnowledge.definitional.xlsx
+++ b/StructureDefinition-ext-R5-MedicationKnowledge.definitional.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2372" uniqueCount="261">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -128,7 +128,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -405,7 +405,7 @@
     <t>Extension.extension.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct)
 </t>
   </si>
   <si>
@@ -454,12 +454,6 @@
 </t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medication-form-codes-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:intendedRoute</t>
   </si>
   <si>
@@ -489,9 +483,6 @@
   </si>
   <si>
     <t>Extension.extension:intendedRoute.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-route-codes-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:ingredient</t>
@@ -609,8 +600,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:ingredient.extension:item.extension:concept.id</t>
@@ -637,8 +627,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:ingredient.extension:item.extension:reference.id</t>
@@ -653,7 +642,7 @@
     <t>Extension.extension:ingredient.extension:item.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance)
 </t>
   </si>
   <si>
@@ -799,9 +788,6 @@
   </si>
   <si>
     <t>Extension.extension:drugCharacteristic.extension:type.value[x]</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-medicationknowledge-characteristic-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:drugCharacteristic.extension:value</t>
@@ -1201,7 +1187,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.578125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -2644,11 +2630,13 @@
         <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y14" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z14" t="s" s="2">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>77</v>
@@ -2686,13 +2674,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2717,14 +2705,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2793,7 +2781,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>105</v>
@@ -2896,7 +2884,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>107</v>
@@ -3001,7 +2989,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>113</v>
@@ -3044,7 +3032,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -3106,7 +3094,7 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="2">
         <v>122</v>
@@ -3135,10 +3123,10 @@
         <v>137</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3165,11 +3153,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -3207,13 +3197,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -3238,14 +3228,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -3314,7 +3304,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -3417,7 +3407,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -3520,13 +3510,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -3551,14 +3541,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -3627,10 +3617,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3730,10 +3720,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3833,13 +3823,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>77</v>
@@ -3864,10 +3854,10 @@
         <v>93</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3938,10 +3928,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4041,10 +4031,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -4146,10 +4136,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -4189,7 +4179,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>77</v>
@@ -4251,10 +4241,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -4280,13 +4270,13 @@
         <v>87</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -4294,7 +4284,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>77</v>
@@ -4356,13 +4346,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
@@ -4387,14 +4377,14 @@
         <v>93</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -4463,10 +4453,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -4566,10 +4556,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -4671,10 +4661,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -4714,7 +4704,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>77</v>
@@ -4776,10 +4766,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -4805,10 +4795,10 @@
         <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -4879,13 +4869,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
@@ -4910,14 +4900,14 @@
         <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -4986,10 +4976,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -5089,10 +5079,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -5194,10 +5184,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -5237,7 +5227,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -5299,10 +5289,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -5325,13 +5315,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -5402,10 +5392,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -5445,7 +5435,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -5507,10 +5497,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -5533,13 +5523,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -5610,13 +5600,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -5641,14 +5631,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -5717,10 +5707,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -5820,10 +5810,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -5925,10 +5915,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -5968,7 +5958,7 @@
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="S46" t="s" s="2">
         <v>77</v>
@@ -6030,10 +6020,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -6059,10 +6049,10 @@
         <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" s="2"/>
@@ -6133,13 +6123,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D48" t="s" s="2">
         <v>77</v>
@@ -6164,14 +6154,14 @@
         <v>93</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>77</v>
@@ -6240,10 +6230,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -6343,10 +6333,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -6448,10 +6438,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -6491,7 +6481,7 @@
       </c>
       <c r="Q51" s="2"/>
       <c r="R51" t="s" s="2">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="S51" t="s" s="2">
         <v>77</v>
@@ -6553,10 +6543,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -6579,13 +6569,13 @@
         <v>77</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -6656,7 +6646,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>113</v>
@@ -6699,7 +6689,7 @@
       </c>
       <c r="Q53" s="2"/>
       <c r="R53" t="s" s="2">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="S53" t="s" s="2">
         <v>77</v>
@@ -6761,7 +6751,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>122</v>
@@ -6787,13 +6777,13 @@
         <v>77</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N54" s="2"/>
       <c r="O54" s="2"/>
@@ -6864,13 +6854,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D55" t="s" s="2">
         <v>77</v>
@@ -6895,14 +6885,14 @@
         <v>93</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>77</v>
@@ -6971,7 +6961,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B56" t="s" s="2">
         <v>105</v>
@@ -7074,7 +7064,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="B57" t="s" s="2">
         <v>107</v>
@@ -7177,13 +7167,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D58" t="s" s="2">
         <v>77</v>
@@ -7208,14 +7198,14 @@
         <v>93</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>77</v>
@@ -7284,10 +7274,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -7387,10 +7377,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -7492,10 +7482,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -7535,7 +7525,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -7597,10 +7587,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -7626,10 +7616,10 @@
         <v>137</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -7656,11 +7646,13 @@
         <v>77</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y62" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z62" t="s" s="2">
-        <v>249</v>
+        <v>77</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>77</v>
@@ -7698,13 +7690,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -7729,16 +7721,16 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -7807,10 +7799,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -7910,10 +7902,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -8015,10 +8007,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -8058,7 +8050,7 @@
       </c>
       <c r="Q66" s="2"/>
       <c r="R66" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>77</v>
@@ -8120,10 +8112,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -8146,16 +8138,16 @@
         <v>77</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -8225,7 +8217,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>113</v>
@@ -8268,7 +8260,7 @@
       </c>
       <c r="Q68" s="2"/>
       <c r="R68" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="S68" t="s" s="2">
         <v>77</v>
@@ -8330,7 +8322,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>122</v>
@@ -8356,13 +8348,13 @@
         <v>77</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -8564,13 +8556,13 @@
         <v>77</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" s="2"/>
